--- a/Code/Results/Cases/Case_3_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.6148649373887</v>
+        <v>19.48215109446573</v>
       </c>
       <c r="C2">
-        <v>17.44709474724301</v>
+        <v>9.622915436724618</v>
       </c>
       <c r="D2">
-        <v>4.87056493598524</v>
+        <v>6.929506622363342</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.748693026909</v>
+        <v>37.95862912282813</v>
       </c>
       <c r="G2">
-        <v>2.068196707572232</v>
+        <v>3.680162490946819</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.48329040101627</v>
+        <v>29.98556928058724</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.103595493977501</v>
+        <v>10.77904386553931</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.84681039868267</v>
+        <v>19.02328921379115</v>
       </c>
       <c r="C3">
-        <v>16.2296518053482</v>
+        <v>8.99480798270759</v>
       </c>
       <c r="D3">
-        <v>4.912297809368217</v>
+        <v>6.947657735997654</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.74745002806836</v>
+        <v>37.55550981691331</v>
       </c>
       <c r="G3">
-        <v>2.080861475030293</v>
+        <v>3.684471620375105</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.61261687935076</v>
+        <v>29.87936398640711</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.809680763043043</v>
+        <v>10.75831953067555</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.70790189003997</v>
+        <v>18.74230747152236</v>
       </c>
       <c r="C4">
-        <v>15.44667152798082</v>
+        <v>8.58541395486165</v>
       </c>
       <c r="D4">
-        <v>4.941419401928817</v>
+        <v>6.959745809985331</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.51511774000829</v>
+        <v>37.31756767505772</v>
       </c>
       <c r="G4">
-        <v>2.088782418152821</v>
+        <v>3.687251992537754</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.09436412272146</v>
+        <v>29.82146239301849</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.631009098622823</v>
+        <v>10.74797073680646</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.23015800691098</v>
+        <v>18.62818656717883</v>
       </c>
       <c r="C5">
-        <v>15.11849551905094</v>
+        <v>8.412599992245919</v>
       </c>
       <c r="D5">
-        <v>4.954097770373002</v>
+        <v>6.964907749490089</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.01238367541865</v>
+        <v>37.22310176012114</v>
       </c>
       <c r="G5">
-        <v>2.092050539566262</v>
+        <v>3.688418989765443</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.88726093980832</v>
+        <v>29.79970957796863</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.558704354295514</v>
+        <v>10.74435290624751</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.14999983116422</v>
+        <v>18.60926556011419</v>
       </c>
       <c r="C6">
-        <v>15.06344710722198</v>
+        <v>8.383542631097853</v>
       </c>
       <c r="D6">
-        <v>4.956250135518476</v>
+        <v>6.965779100733915</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.92888429164458</v>
+        <v>37.20756910750517</v>
       </c>
       <c r="G6">
-        <v>2.09259574785817</v>
+        <v>3.688614824742956</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.85311823587471</v>
+        <v>29.79620891458498</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.546730509142074</v>
+        <v>10.74378841566522</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.70151432884349</v>
+        <v>18.74076659822068</v>
       </c>
       <c r="C7">
-        <v>15.44228273181227</v>
+        <v>8.583107566882823</v>
       </c>
       <c r="D7">
-        <v>4.941587187637756</v>
+        <v>6.959814471996858</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.50833937121033</v>
+        <v>37.31628344891851</v>
       </c>
       <c r="G7">
-        <v>2.088826325241603</v>
+        <v>3.687267593332825</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.0915545173769</v>
+        <v>29.82116156236169</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.630031846050571</v>
+        <v>10.74791951643785</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.0161625769732</v>
+        <v>19.3238898911937</v>
       </c>
       <c r="C8">
-        <v>17.03456235160977</v>
+        <v>9.411260685762917</v>
       </c>
       <c r="D8">
-        <v>4.884184925050839</v>
+        <v>6.935568620895028</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.05957412299387</v>
+        <v>37.81770206449075</v>
       </c>
       <c r="G8">
-        <v>2.072535933760303</v>
+        <v>3.681620437259089</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.17967140802021</v>
+        <v>29.94743624901157</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.001910899553986</v>
+        <v>10.77140626675487</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.14373902063114</v>
+        <v>20.46538186172601</v>
       </c>
       <c r="C9">
-        <v>19.88518438047626</v>
+        <v>10.84767403863323</v>
       </c>
       <c r="D9">
-        <v>4.802897577250316</v>
+        <v>6.895561838619815</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.02583077167442</v>
+        <v>38.87272949663448</v>
       </c>
       <c r="G9">
-        <v>2.041542252590666</v>
+        <v>3.67160760041422</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.44553034142075</v>
+        <v>30.25274375864871</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.743650757906401</v>
+        <v>10.83621128714113</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.94410420306103</v>
+        <v>21.29256561129516</v>
       </c>
       <c r="C10">
-        <v>21.8290841514429</v>
+        <v>11.78971273841944</v>
       </c>
       <c r="D10">
-        <v>4.767942679161703</v>
+        <v>6.870841249272663</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.65171612648376</v>
+        <v>39.68561082477194</v>
       </c>
       <c r="G10">
-        <v>2.019038247977999</v>
+        <v>3.664889192929523</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.19733219599505</v>
+        <v>30.51165645308195</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.295081661164161</v>
+        <v>10.89508137823243</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.17259761727691</v>
+        <v>21.66439817853377</v>
       </c>
       <c r="C11">
-        <v>22.68478340676972</v>
+        <v>12.19391027428599</v>
       </c>
       <c r="D11">
-        <v>4.758952667829912</v>
+        <v>6.860626431017707</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.29952191653748</v>
+        <v>40.06226389608983</v>
       </c>
       <c r="G11">
-        <v>2.008775402887728</v>
+        <v>3.661969443879082</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.01583806353416</v>
+        <v>30.63678867230391</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.547507020289149</v>
+        <v>10.92426058029865</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.6317518940153</v>
+        <v>21.80440941610894</v>
       </c>
       <c r="C12">
-        <v>23.00510089558561</v>
+        <v>12.34348843794052</v>
       </c>
       <c r="D12">
-        <v>4.756695290504057</v>
+        <v>6.856907967675014</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.9237784158353</v>
+        <v>40.20576450777135</v>
       </c>
       <c r="G12">
-        <v>2.00487718902394</v>
+        <v>3.660883289874376</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.32922036921282</v>
+        <v>30.68521230356493</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.643364575022609</v>
+        <v>10.93565014805816</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.53312541943691</v>
+        <v>21.77429310397773</v>
       </c>
       <c r="C13">
-        <v>22.93627317215329</v>
+        <v>12.31142871581876</v>
       </c>
       <c r="D13">
-        <v>4.757127753053268</v>
+        <v>6.85770212551373</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.78931145273331</v>
+        <v>40.17482225709779</v>
       </c>
       <c r="G13">
-        <v>2.005717413302696</v>
+        <v>3.661116347830148</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.26156892030783</v>
+        <v>30.67473752285527</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.622706968331149</v>
+        <v>10.93318216101699</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.21049074456923</v>
+        <v>21.67593372927799</v>
       </c>
       <c r="C14">
-        <v>22.71120813934305</v>
+        <v>12.20628585671864</v>
       </c>
       <c r="D14">
-        <v>4.758743003943557</v>
+        <v>6.860317502881403</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.35087088190522</v>
+        <v>40.07405301220188</v>
       </c>
       <c r="G14">
-        <v>2.008454984680909</v>
+        <v>3.661879695468966</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.0415491909507</v>
+        <v>30.64075180760258</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.555387533035583</v>
+        <v>10.9251908219167</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.0120953617847</v>
+        <v>21.61557806765132</v>
       </c>
       <c r="C15">
-        <v>22.57287796274679</v>
+        <v>12.1414297961762</v>
       </c>
       <c r="D15">
-        <v>4.759886704718372</v>
+        <v>6.861939031435462</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.08236673908783</v>
+        <v>40.01243877293315</v>
       </c>
       <c r="G15">
-        <v>2.010130010704833</v>
+        <v>3.662349802309588</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.90723914861807</v>
+        <v>30.62006927414426</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.514189278889633</v>
+        <v>10.9203400246753</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.8629449667492</v>
+        <v>21.26816247712696</v>
       </c>
       <c r="C16">
-        <v>21.77261919336895</v>
+        <v>11.76280917167382</v>
       </c>
       <c r="D16">
-        <v>4.768681833432408</v>
+        <v>6.871529675871608</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.54403369162439</v>
+        <v>39.66112386295315</v>
       </c>
       <c r="G16">
-        <v>2.019707760327817</v>
+        <v>3.665082740321382</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.14430109716838</v>
+        <v>30.5036251780822</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.278619843517342</v>
+        <v>10.89322231096361</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.14666807450472</v>
+        <v>21.05378045652679</v>
       </c>
       <c r="C17">
-        <v>21.27462548261093</v>
+        <v>11.52431581879995</v>
       </c>
       <c r="D17">
-        <v>4.775949298891444</v>
+        <v>6.877678241897961</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.60019328428358</v>
+        <v>39.44727964064552</v>
       </c>
       <c r="G17">
-        <v>2.025571383109785</v>
+        <v>3.666794170872135</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.68199616840025</v>
+        <v>30.43406100732327</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.134531535259141</v>
+        <v>10.87719753876288</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.73037802398246</v>
+        <v>20.93006247230908</v>
       </c>
       <c r="C18">
-        <v>20.98547475620014</v>
+        <v>11.38484863233166</v>
       </c>
       <c r="D18">
-        <v>4.780769417382547</v>
+        <v>6.881311661174914</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.05712618109924</v>
+        <v>39.32493579365078</v>
       </c>
       <c r="G18">
-        <v>2.028942129238923</v>
+        <v>3.667791395449371</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.41809884208045</v>
+        <v>30.39474273508459</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.05180004962441</v>
+        <v>10.86820663527759</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.5886762395326</v>
+        <v>20.88810791251687</v>
       </c>
       <c r="C19">
-        <v>20.88709544133815</v>
+        <v>11.33723323815209</v>
       </c>
       <c r="D19">
-        <v>4.782507062952113</v>
+        <v>6.882558477732056</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.87320747082256</v>
+        <v>39.28362810642943</v>
       </c>
       <c r="G19">
-        <v>2.030083316930923</v>
+        <v>3.668131250536142</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.3290843882823</v>
+        <v>30.38154982608767</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.023812503792939</v>
+        <v>10.86520144856138</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.2233594328117</v>
+        <v>21.07664547884642</v>
       </c>
       <c r="C20">
-        <v>21.32791639436128</v>
+        <v>11.54994094301973</v>
       </c>
       <c r="D20">
-        <v>4.775108384640077</v>
+        <v>6.877013674529431</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.70068390377205</v>
+        <v>39.46997691689161</v>
       </c>
       <c r="G20">
-        <v>2.02494743775999</v>
+        <v>3.66661065670617</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.73099944133086</v>
+        <v>30.44139461498745</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.149854822981098</v>
+        <v>10.87888003453229</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.30541635885621</v>
+        <v>21.70484696437908</v>
       </c>
       <c r="C21">
-        <v>22.77741263000715</v>
+        <v>12.23726324126358</v>
       </c>
       <c r="D21">
-        <v>4.758236099638987</v>
+        <v>6.859545229583184</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.47963919118113</v>
+        <v>40.10362870367138</v>
       </c>
       <c r="G21">
-        <v>2.007651288520631</v>
+        <v>3.661654953843425</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.1060780559103</v>
+        <v>30.65070620062168</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.57515308887611</v>
+        <v>10.92752888498667</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.63117868731599</v>
+        <v>22.11072375551511</v>
       </c>
       <c r="C22">
-        <v>23.70330564945523</v>
+        <v>12.66617670135801</v>
       </c>
       <c r="D22">
-        <v>4.753983263027315</v>
+        <v>6.849001647980868</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.29779765789208</v>
+        <v>40.52277450182375</v>
       </c>
       <c r="G22">
-        <v>1.99627308474335</v>
+        <v>3.658529664854129</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.02500694913419</v>
+        <v>30.79354823688202</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.854721718957327</v>
+        <v>10.96130310503059</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.92661662052376</v>
+        <v>21.89457631602922</v>
       </c>
       <c r="C23">
-        <v>23.21095343686966</v>
+        <v>12.43910834211046</v>
       </c>
       <c r="D23">
-        <v>4.755576264181543</v>
+        <v>6.854548587004718</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.32701237949016</v>
+        <v>40.29864835985355</v>
       </c>
       <c r="G23">
-        <v>2.002355706438252</v>
+        <v>3.660187345263847</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.5325694122338</v>
+        <v>30.71676425280274</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.705341664852824</v>
+        <v>10.94309780184223</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.18870129938625</v>
+        <v>21.06630964485228</v>
       </c>
       <c r="C24">
-        <v>21.30383247133864</v>
+        <v>11.5383631584292</v>
       </c>
       <c r="D24">
-        <v>4.775486573715216</v>
+        <v>6.877313818657475</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.65525350251221</v>
+        <v>39.45971360661974</v>
       </c>
       <c r="G24">
-        <v>2.025229523876583</v>
+        <v>3.666693582022686</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.70883920429905</v>
+        <v>30.43807698682037</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.142926834777203</v>
+        <v>10.87811868649801</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.06939190914402</v>
+        <v>20.15788523278878</v>
       </c>
       <c r="C25">
-        <v>19.14166099452331</v>
+        <v>10.47906143751753</v>
       </c>
       <c r="D25">
-        <v>4.821000746872906</v>
+        <v>6.905569780953721</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.68686654655761</v>
+        <v>38.58023818262608</v>
       </c>
       <c r="G25">
-        <v>2.049854829280484</v>
+        <v>3.674203650794795</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.81792373661574</v>
+        <v>30.16402329294877</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.541835806667127</v>
+        <v>10.81668839572379</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.48215109446573</v>
+        <v>24.61486493738873</v>
       </c>
       <c r="C2">
-        <v>9.622915436724618</v>
+        <v>17.44709474724304</v>
       </c>
       <c r="D2">
-        <v>6.929506622363342</v>
+        <v>4.870564935985314</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.95862912282813</v>
+        <v>39.748693026909</v>
       </c>
       <c r="G2">
-        <v>3.680162490946819</v>
+        <v>2.068196707572365</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.98556928058724</v>
+        <v>26.48329040101623</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.77904386553931</v>
+        <v>8.103595493977521</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.02328921379115</v>
+        <v>22.84681039868265</v>
       </c>
       <c r="C3">
-        <v>8.99480798270759</v>
+        <v>16.22965180534823</v>
       </c>
       <c r="D3">
-        <v>6.947657735997654</v>
+        <v>4.912297809368278</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.55550981691331</v>
+        <v>37.74745002806845</v>
       </c>
       <c r="G3">
-        <v>3.684471620375105</v>
+        <v>2.080861475030031</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.87936398640711</v>
+        <v>25.61261687935082</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.75831953067555</v>
+        <v>7.809680763043021</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74230747152236</v>
+        <v>21.70790189003995</v>
       </c>
       <c r="C4">
-        <v>8.58541395486165</v>
+        <v>15.44667152798071</v>
       </c>
       <c r="D4">
-        <v>6.959745809985331</v>
+        <v>4.941419401929113</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.31756767505772</v>
+        <v>36.51511774000837</v>
       </c>
       <c r="G4">
-        <v>3.687251992537754</v>
+        <v>2.088782418153353</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.82146239301849</v>
+        <v>25.09436412272158</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.74797073680646</v>
+        <v>7.63100909862287</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62818656717883</v>
+        <v>21.23015800691092</v>
       </c>
       <c r="C5">
-        <v>8.412599992245919</v>
+        <v>15.11849551905079</v>
       </c>
       <c r="D5">
-        <v>6.964907749490089</v>
+        <v>4.95409777037309</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.22310176012114</v>
+        <v>36.01238367541893</v>
       </c>
       <c r="G5">
-        <v>3.688418989765443</v>
+        <v>2.09205053956613</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.79970957796863</v>
+        <v>24.88726093980856</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.74435290624751</v>
+        <v>7.558704354295533</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.60926556011419</v>
+        <v>21.14999983116416</v>
       </c>
       <c r="C6">
-        <v>8.383542631097853</v>
+        <v>15.06344710722205</v>
       </c>
       <c r="D6">
-        <v>6.965779100733915</v>
+        <v>4.956250135518623</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.20756910750517</v>
+        <v>35.92888429164474</v>
       </c>
       <c r="G6">
-        <v>3.688614824742956</v>
+        <v>2.092595747858174</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.79620891458498</v>
+        <v>24.8531182358749</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.74378841566522</v>
+        <v>7.546730509142087</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74076659822068</v>
+        <v>21.70151432884345</v>
       </c>
       <c r="C7">
-        <v>8.583107566882823</v>
+        <v>15.44228273181219</v>
       </c>
       <c r="D7">
-        <v>6.959814471996858</v>
+        <v>4.941587187637761</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.31628344891851</v>
+        <v>36.50833937121045</v>
       </c>
       <c r="G7">
-        <v>3.687267593332825</v>
+        <v>2.088826325241468</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.82116156236169</v>
+        <v>25.09155451737704</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.74791951643785</v>
+        <v>7.630031846050588</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.3238898911937</v>
+        <v>24.01616257697325</v>
       </c>
       <c r="C8">
-        <v>9.411260685762917</v>
+        <v>17.03456235160979</v>
       </c>
       <c r="D8">
-        <v>6.935568620895028</v>
+        <v>4.884184925051071</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.81770206449075</v>
+        <v>39.05957412299377</v>
       </c>
       <c r="G8">
-        <v>3.681620437259089</v>
+        <v>2.072535933760307</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.94743624901157</v>
+        <v>26.17967140802013</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.77140626675487</v>
+        <v>8.001910899553883</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.46538186172601</v>
+        <v>28.14373902063114</v>
       </c>
       <c r="C9">
-        <v>10.84767403863323</v>
+        <v>19.88518438047601</v>
       </c>
       <c r="D9">
-        <v>6.895561838619815</v>
+        <v>4.802897577250372</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.87272949663448</v>
+        <v>44.02583077167441</v>
       </c>
       <c r="G9">
-        <v>3.67160760041422</v>
+        <v>2.041542252590533</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.25274375864871</v>
+        <v>28.44553034142074</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.83621128714113</v>
+        <v>8.743650757906421</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.29256561129516</v>
+        <v>30.94410420306102</v>
       </c>
       <c r="C10">
-        <v>11.78971273841944</v>
+        <v>21.8290841514431</v>
       </c>
       <c r="D10">
-        <v>6.870841249272663</v>
+        <v>4.767942679161567</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.68561082477194</v>
+        <v>47.65171612648376</v>
       </c>
       <c r="G10">
-        <v>3.664889192929523</v>
+        <v>2.019038247977869</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.51165645308195</v>
+        <v>30.19733219599503</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.89508137823243</v>
+        <v>9.29508166116417</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.66439817853377</v>
+        <v>32.17259761727692</v>
       </c>
       <c r="C11">
-        <v>12.19391027428599</v>
+        <v>22.68478340676978</v>
       </c>
       <c r="D11">
-        <v>6.860626431017707</v>
+        <v>4.758952667830005</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.06226389608983</v>
+        <v>49.29952191653764</v>
       </c>
       <c r="G11">
-        <v>3.661969443879082</v>
+        <v>2.008775402887592</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.63678867230391</v>
+        <v>31.01583806353428</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.92426058029865</v>
+        <v>9.547507020289139</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.80440941610894</v>
+        <v>32.63175189401537</v>
       </c>
       <c r="C12">
-        <v>12.34348843794052</v>
+        <v>23.00510089558566</v>
       </c>
       <c r="D12">
-        <v>6.856907967675014</v>
+        <v>4.756695290504067</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.20576450777135</v>
+        <v>49.92377841583566</v>
       </c>
       <c r="G12">
-        <v>3.660883289874376</v>
+        <v>2.004877189024064</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.68521230356493</v>
+        <v>31.32922036921305</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.93565014805816</v>
+        <v>9.643364575022611</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.77429310397773</v>
+        <v>32.53312541943691</v>
       </c>
       <c r="C13">
-        <v>12.31142871581876</v>
+        <v>22.93627317215343</v>
       </c>
       <c r="D13">
-        <v>6.85770212551373</v>
+        <v>4.757127753053306</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.17482225709779</v>
+        <v>49.78931145273351</v>
       </c>
       <c r="G13">
-        <v>3.661116347830148</v>
+        <v>2.00571741330295</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.67473752285527</v>
+        <v>31.26156892030794</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.93318216101699</v>
+        <v>9.622706968331123</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.67593372927799</v>
+        <v>32.2104907445694</v>
       </c>
       <c r="C14">
-        <v>12.20628585671864</v>
+        <v>22.7112081393432</v>
       </c>
       <c r="D14">
-        <v>6.860317502881403</v>
+        <v>4.758743003943483</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.07405301220188</v>
+        <v>49.3508708819054</v>
       </c>
       <c r="G14">
-        <v>3.661879695468966</v>
+        <v>2.008454984681038</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.64075180760258</v>
+        <v>31.04154919095077</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.9251908219167</v>
+        <v>9.555387533035601</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.61557806765132</v>
+        <v>32.01209536178492</v>
       </c>
       <c r="C15">
-        <v>12.1414297961762</v>
+        <v>22.57287796274696</v>
       </c>
       <c r="D15">
-        <v>6.861939031435462</v>
+        <v>4.759886704718351</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.01243877293315</v>
+        <v>49.08236673908811</v>
       </c>
       <c r="G15">
-        <v>3.662349802309588</v>
+        <v>2.010130010704824</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.62006927414426</v>
+        <v>30.90723914861818</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.9203400246753</v>
+        <v>9.514189278889667</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.26816247712696</v>
+        <v>30.86294496674927</v>
       </c>
       <c r="C16">
-        <v>11.76280917167382</v>
+        <v>21.77261919336878</v>
       </c>
       <c r="D16">
-        <v>6.871529675871608</v>
+        <v>4.768681833432466</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.66112386295315</v>
+        <v>47.5440336916244</v>
       </c>
       <c r="G16">
-        <v>3.665082740321382</v>
+        <v>2.019707760327814</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.5036251780822</v>
+        <v>30.14430109716839</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.89322231096361</v>
+        <v>9.278619843517347</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.05378045652679</v>
+        <v>30.14666807450451</v>
       </c>
       <c r="C17">
-        <v>11.52431581879995</v>
+        <v>21.27462548261082</v>
       </c>
       <c r="D17">
-        <v>6.877678241897961</v>
+        <v>4.775949298891502</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.44727964064552</v>
+        <v>46.60019328428364</v>
       </c>
       <c r="G17">
-        <v>3.666794170872135</v>
+        <v>2.025571383110188</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.43406100732327</v>
+        <v>29.6819961684004</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.87719753876288</v>
+        <v>9.134531535259148</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.93006247230908</v>
+        <v>29.73037802398251</v>
       </c>
       <c r="C18">
-        <v>11.38484863233166</v>
+        <v>20.9854747562003</v>
       </c>
       <c r="D18">
-        <v>6.881311661174914</v>
+        <v>4.780769417382609</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39.32493579365078</v>
+        <v>46.05712618109931</v>
       </c>
       <c r="G18">
-        <v>3.667791395449371</v>
+        <v>2.028942129238798</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.39474273508459</v>
+        <v>29.41809884208045</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.86820663527759</v>
+        <v>9.051800049624404</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.88810791251687</v>
+        <v>29.58867623953251</v>
       </c>
       <c r="C19">
-        <v>11.33723323815209</v>
+        <v>20.887095441338</v>
       </c>
       <c r="D19">
-        <v>6.882558477732056</v>
+        <v>4.782507062952125</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.28362810642943</v>
+        <v>45.87320747082239</v>
       </c>
       <c r="G19">
-        <v>3.668131250536142</v>
+        <v>2.030083316931055</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.38154982608767</v>
+        <v>29.32908438828224</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.86520144856138</v>
+        <v>9.023812503792922</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.07664547884642</v>
+        <v>30.22335943281157</v>
       </c>
       <c r="C20">
-        <v>11.54994094301973</v>
+        <v>21.32791639436117</v>
       </c>
       <c r="D20">
-        <v>6.877013674529431</v>
+        <v>4.775108384640065</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.46997691689161</v>
+        <v>46.700683903772</v>
       </c>
       <c r="G20">
-        <v>3.66661065670617</v>
+        <v>2.024947437759987</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.44139461498745</v>
+        <v>29.73099944133089</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.87888003453229</v>
+        <v>9.149854822981087</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.70484696437908</v>
+        <v>32.30541635885634</v>
       </c>
       <c r="C21">
-        <v>12.23726324126358</v>
+        <v>22.77741263000726</v>
       </c>
       <c r="D21">
-        <v>6.859545229583184</v>
+        <v>4.758236099638942</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.10362870367138</v>
+        <v>49.47963919118138</v>
       </c>
       <c r="G21">
-        <v>3.661654953843425</v>
+        <v>2.007651288520764</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.65070620062168</v>
+        <v>31.10607805591043</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.92752888498667</v>
+        <v>9.575153088876084</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.11072375551511</v>
+        <v>33.63117868731602</v>
       </c>
       <c r="C22">
-        <v>12.66617670135801</v>
+        <v>23.70330564945522</v>
       </c>
       <c r="D22">
-        <v>6.849001647980868</v>
+        <v>4.753983263027356</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.52277450182375</v>
+        <v>51.2977976578921</v>
       </c>
       <c r="G22">
-        <v>3.658529664854129</v>
+        <v>1.996273084743482</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.79354823688202</v>
+        <v>32.02500694913423</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.96130310503059</v>
+        <v>9.854721718957331</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.89457631602922</v>
+        <v>32.92661662052382</v>
       </c>
       <c r="C23">
-        <v>12.43910834211046</v>
+        <v>23.21095343686961</v>
       </c>
       <c r="D23">
-        <v>6.854548587004718</v>
+        <v>4.755576264181486</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.29864835985355</v>
+        <v>50.32701237949018</v>
       </c>
       <c r="G23">
-        <v>3.660187345263847</v>
+        <v>2.00235570643812</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.71676425280274</v>
+        <v>31.53256941223378</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.94309780184223</v>
+        <v>9.705341664852837</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.06630964485228</v>
+        <v>30.18870129938629</v>
       </c>
       <c r="C24">
-        <v>11.5383631584292</v>
+        <v>21.30383247133859</v>
       </c>
       <c r="D24">
-        <v>6.877313818657475</v>
+        <v>4.77548657371539</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.45971360661974</v>
+        <v>46.65525350251229</v>
       </c>
       <c r="G24">
-        <v>3.666693582022686</v>
+        <v>2.025229523876451</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.43807698682037</v>
+        <v>29.70883920429906</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.87811868649801</v>
+        <v>9.142926834777246</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.15788523278878</v>
+        <v>27.06939190914392</v>
       </c>
       <c r="C25">
-        <v>10.47906143751753</v>
+        <v>19.14166099452319</v>
       </c>
       <c r="D25">
-        <v>6.905569780953721</v>
+        <v>4.821000746872871</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.58023818262608</v>
+        <v>42.68686654655767</v>
       </c>
       <c r="G25">
-        <v>3.674203650794795</v>
+        <v>2.049854829280353</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.16402329294877</v>
+        <v>27.81792373661585</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.81668839572379</v>
+        <v>8.541835806667095</v>
       </c>
       <c r="M25">
         <v>0</v>
